--- a/Labb_2/2021_Kostnader per kommun.xlsx
+++ b/Labb_2/2021_Kostnader per kommun.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{26CA3A69-41F9-4E55-9D70-EC5FDD0F144A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23520" yWindow="3420" windowWidth="23010" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24555" yWindow="2385" windowWidth="23010" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
